--- a/test/integration/TestAccs.xlsx
+++ b/test/integration/TestAccs.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davuluris\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="2520"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Status" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M17"/>
 </workbook>
 </file>
 
@@ -47,7 +51,7 @@
     <t>20150914006</t>
   </si>
   <si>
-    <t>20150914007</t>
+    <t>20150914005</t>
   </si>
 </sst>
 </file>
@@ -393,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +409,7 @@
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -428,9 +432,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -451,9 +455,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -474,39 +478,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test/integration/TestAccs.xlsx
+++ b/test/integration/TestAccs.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davuluris\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="2520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="2595"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -48,10 +44,10 @@
     <t>Username</t>
   </si>
   <si>
-    <t>20150914006</t>
-  </si>
-  <si>
-    <t>20150914005</t>
+    <t>20150914011</t>
+  </si>
+  <si>
+    <t>20150914012</t>
   </si>
 </sst>
 </file>
@@ -434,7 +430,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -457,7 +453,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>

--- a/test/integration/TestAccs.xlsx
+++ b/test/integration/TestAccs.xlsx
@@ -44,10 +44,10 @@
     <t>Username</t>
   </si>
   <si>
-    <t>20150914011</t>
-  </si>
-  <si>
-    <t>20150914012</t>
+    <t>20150914015</t>
+  </si>
+  <si>
+    <t>20150914016</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test/integration/TestAccs.xlsx
+++ b/test/integration/TestAccs.xlsx
@@ -44,10 +44,10 @@
     <t>Username</t>
   </si>
   <si>
-    <t>20150914015</t>
-  </si>
-  <si>
-    <t>20150914016</t>
+    <t>20151209003</t>
+  </si>
+  <si>
+    <t>20151209004</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test/integration/TestAccs.xlsx
+++ b/test/integration/TestAccs.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davuluris\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="2595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="2520"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -44,10 +48,10 @@
     <t>Username</t>
   </si>
   <si>
-    <t>20151209003</t>
-  </si>
-  <si>
-    <t>20151209004</t>
+    <t>20150914006</t>
+  </si>
+  <si>
+    <t>20150914005</t>
   </si>
 </sst>
 </file>
@@ -430,7 +434,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -453,7 +457,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>

--- a/test/integration/TestAccs.xlsx
+++ b/test/integration/TestAccs.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davuluris\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="2520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="5475"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -48,10 +44,10 @@
     <t>Username</t>
   </si>
   <si>
-    <t>20150914006</t>
-  </si>
-  <si>
-    <t>20150914005</t>
+    <t>20151209008</t>
+  </si>
+  <si>
+    <t>20151209009</t>
   </si>
 </sst>
 </file>
@@ -400,7 +396,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +430,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -457,7 +453,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>

--- a/test/integration/TestAccs.xlsx
+++ b/test/integration/TestAccs.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="5850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="3420"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K17"/>
+  <oleSize ref="A1:K4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="95">
   <si>
     <t>Mid</t>
   </si>
@@ -45,12 +44,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>20160122002</t>
-  </si>
-  <si>
-    <t>20160122001</t>
-  </si>
-  <si>
     <t>20160122003</t>
   </si>
   <si>
@@ -280,13 +273,41 @@
   </si>
   <si>
     <t>20160122014</t>
+  </si>
+  <si>
+    <t>Test20160122003</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Test20160122004</t>
+  </si>
+  <si>
+    <t>Test20160122011</t>
+  </si>
+  <si>
+    <t>Test20160122012</t>
+  </si>
+  <si>
+    <t>Test20160122013</t>
+  </si>
+  <si>
+    <t>Test20160122015</t>
+  </si>
+  <si>
+    <t>Test20160122017</t>
+  </si>
+  <si>
+    <t>Test20160122019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,15 +645,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G81"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -660,10 +681,10 @@
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -678,15 +699,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -701,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -709,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -732,7 +753,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -755,7 +776,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -775,10 +796,10 @@
     </row>
     <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -798,10 +819,10 @@
     </row>
     <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -824,7 +845,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -847,7 +868,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -862,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -870,7 +891,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -885,7 +906,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -893,7 +914,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -908,15 +929,15 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -936,10 +957,10 @@
     </row>
     <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -954,15 +975,15 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
         <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -982,10 +1003,10 @@
     </row>
     <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -1000,15 +1021,15 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1028,10 +1049,10 @@
     </row>
     <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -1046,12 +1067,12 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1074,7 +1095,7 @@
     </row>
     <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -1097,7 +1118,7 @@
     </row>
     <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -1120,7 +1141,7 @@
     </row>
     <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -1143,7 +1164,7 @@
     </row>
     <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -1166,7 +1187,7 @@
     </row>
     <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -1189,7 +1210,7 @@
     </row>
     <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -1212,7 +1233,7 @@
     </row>
     <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -1235,7 +1256,7 @@
     </row>
     <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -1257,8 +1278,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>74</v>
+      <c r="A28" s="1">
+        <v>20160122029</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -1281,7 +1302,7 @@
     </row>
     <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -1303,8 +1324,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>20160122029</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -1327,7 +1348,7 @@
     </row>
     <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -1350,7 +1371,7 @@
     </row>
     <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -1373,7 +1394,7 @@
     </row>
     <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -1396,7 +1417,7 @@
     </row>
     <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -1419,7 +1440,7 @@
     </row>
     <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -1442,7 +1463,7 @@
     </row>
     <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -1465,7 +1486,7 @@
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -1488,7 +1509,7 @@
     </row>
     <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -1511,7 +1532,7 @@
     </row>
     <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -1534,7 +1555,7 @@
     </row>
     <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -1557,7 +1578,7 @@
     </row>
     <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
@@ -1580,7 +1601,7 @@
     </row>
     <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -1603,7 +1624,7 @@
     </row>
     <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -1626,7 +1647,7 @@
     </row>
     <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -1649,7 +1670,7 @@
     </row>
     <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
@@ -1672,7 +1693,7 @@
     </row>
     <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -1695,7 +1716,7 @@
     </row>
     <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -1718,7 +1739,7 @@
     </row>
     <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -1741,7 +1762,7 @@
     </row>
     <row r="49" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -1764,7 +1785,7 @@
     </row>
     <row r="50" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -1787,7 +1808,7 @@
     </row>
     <row r="51" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -1810,7 +1831,7 @@
     </row>
     <row r="52" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -1833,7 +1854,7 @@
     </row>
     <row r="53" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -1856,7 +1877,7 @@
     </row>
     <row r="54" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -1877,9 +1898,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
@@ -1900,9 +1921,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -1923,9 +1944,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -1946,9 +1967,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
@@ -1969,9 +1990,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -1992,9 +2013,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -2015,9 +2036,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
@@ -2038,9 +2059,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -2061,9 +2082,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -2084,9 +2105,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
@@ -2107,9 +2128,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -2130,9 +2151,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -2153,9 +2174,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -2176,9 +2197,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -2199,9 +2220,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -2222,9 +2243,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -2245,9 +2266,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -2268,9 +2289,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -2291,9 +2312,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -2314,9 +2335,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -2337,9 +2358,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -2360,9 +2381,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
@@ -2383,9 +2404,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
@@ -2406,9 +2427,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
@@ -2429,9 +2450,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -2452,152 +2473,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s">
-        <v>2</v>
-      </c>
-      <c r="G80" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" t="s">
-        <v>2</v>
-      </c>
-      <c r="G81" t="s">
-        <v>2</v>
-      </c>
+    <row r="80" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A80"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A80"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test/integration/TestAccs.xlsx
+++ b/test/integration/TestAccs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="3420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="1680"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="110">
   <si>
     <t>Mid</t>
   </si>
@@ -300,6 +300,51 @@
   </si>
   <si>
     <t>Test20160122019</t>
+  </si>
+  <si>
+    <t>Test20160122021</t>
+  </si>
+  <si>
+    <t>Test20160122023</t>
+  </si>
+  <si>
+    <t>Test20160122024</t>
+  </si>
+  <si>
+    <t>Test20160122025</t>
+  </si>
+  <si>
+    <t>Test20160122027</t>
+  </si>
+  <si>
+    <t>Test20160122030</t>
+  </si>
+  <si>
+    <t>Test20160122032</t>
+  </si>
+  <si>
+    <t>Test20160122042</t>
+  </si>
+  <si>
+    <t>Test20160122044</t>
+  </si>
+  <si>
+    <t>Test20160122045</t>
+  </si>
+  <si>
+    <t>Test20160122046</t>
+  </si>
+  <si>
+    <t>Test20160122047</t>
+  </si>
+  <si>
+    <t>Test20160122051</t>
+  </si>
+  <si>
+    <t>Test20160122054</t>
+  </si>
+  <si>
+    <t>Test20160122055</t>
   </si>
 </sst>
 </file>
@@ -645,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1120,7 @@
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1098,7 +1143,7 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1113,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1121,7 +1166,7 @@
         <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1144,7 +1189,7 @@
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1159,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1167,7 +1212,7 @@
         <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1182,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1190,7 +1235,7 @@
         <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -1205,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1213,7 +1258,7 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1236,7 +1281,7 @@
         <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1251,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1259,7 +1304,7 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1282,7 +1327,7 @@
         <v>20160122029</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1305,7 +1350,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1320,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1328,7 +1373,7 @@
         <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1351,7 +1396,7 @@
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1366,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1374,7 +1419,7 @@
         <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1397,7 +1442,7 @@
         <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1420,7 +1465,7 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1443,7 +1488,7 @@
         <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1466,7 +1511,7 @@
         <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1489,7 +1534,7 @@
         <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1512,7 +1557,7 @@
         <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1535,7 +1580,7 @@
         <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1558,7 +1603,7 @@
         <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1581,7 +1626,7 @@
         <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1596,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1604,7 +1649,7 @@
         <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1627,7 +1672,7 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1642,7 +1687,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1650,7 +1695,7 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1665,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1673,7 +1718,7 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1688,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1696,7 +1741,7 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1711,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1719,7 +1764,7 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1742,7 +1787,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1765,7 +1810,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -1788,7 +1833,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1803,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1811,7 +1856,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1834,7 +1879,7 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1857,7 +1902,7 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1872,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1880,7 +1925,7 @@
         <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1895,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">

--- a/test/integration/TestAccs.xlsx
+++ b/test/integration/TestAccs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="3870" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="2685" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SAQA" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="SAQD" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M10"/>
+  <oleSize ref="A1:N6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="9">
   <si>
     <t>Mid</t>
   </si>
@@ -50,325 +50,12 @@
   <si>
     <t>Username</t>
   </si>
-  <si>
-    <t>20160126001</t>
-  </si>
-  <si>
-    <t>20160126010</t>
-  </si>
-  <si>
-    <t>20160126002</t>
-  </si>
-  <si>
-    <t>20160126003</t>
-  </si>
-  <si>
-    <t>20160126004</t>
-  </si>
-  <si>
-    <t>20160126005</t>
-  </si>
-  <si>
-    <t>20160126006</t>
-  </si>
-  <si>
-    <t>20160126007</t>
-  </si>
-  <si>
-    <t>20160126008</t>
-  </si>
-  <si>
-    <t>20160126009</t>
-  </si>
-  <si>
-    <t>20160126020</t>
-  </si>
-  <si>
-    <t>20160126030</t>
-  </si>
-  <si>
-    <t>20160126040</t>
-  </si>
-  <si>
-    <t>20160126050</t>
-  </si>
-  <si>
-    <t>20160126060</t>
-  </si>
-  <si>
-    <t>20160126070</t>
-  </si>
-  <si>
-    <t>20160126080</t>
-  </si>
-  <si>
-    <t>Test20160126001</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>20160126011</t>
-  </si>
-  <si>
-    <t>20160126012</t>
-  </si>
-  <si>
-    <t>20160126013</t>
-  </si>
-  <si>
-    <t>20160126014</t>
-  </si>
-  <si>
-    <t>20160126015</t>
-  </si>
-  <si>
-    <t>20160126016</t>
-  </si>
-  <si>
-    <t>20160126017</t>
-  </si>
-  <si>
-    <t>20160126018</t>
-  </si>
-  <si>
-    <t>20160126019</t>
-  </si>
-  <si>
-    <t>20160126021</t>
-  </si>
-  <si>
-    <t>20160126022</t>
-  </si>
-  <si>
-    <t>20160126023</t>
-  </si>
-  <si>
-    <t>20160126024</t>
-  </si>
-  <si>
-    <t>20160126025</t>
-  </si>
-  <si>
-    <t>20160126026</t>
-  </si>
-  <si>
-    <t>20160126027</t>
-  </si>
-  <si>
-    <t>20160126028</t>
-  </si>
-  <si>
-    <t>20160126029</t>
-  </si>
-  <si>
-    <t>20160126031</t>
-  </si>
-  <si>
-    <t>20160126032</t>
-  </si>
-  <si>
-    <t>20160126033</t>
-  </si>
-  <si>
-    <t>20160126034</t>
-  </si>
-  <si>
-    <t>20160126035</t>
-  </si>
-  <si>
-    <t>20160126037</t>
-  </si>
-  <si>
-    <t>20160126036</t>
-  </si>
-  <si>
-    <t>20160126038</t>
-  </si>
-  <si>
-    <t>20160126039</t>
-  </si>
-  <si>
-    <t>20160126041</t>
-  </si>
-  <si>
-    <t>20160126042</t>
-  </si>
-  <si>
-    <t>20160126043</t>
-  </si>
-  <si>
-    <t>20160126044</t>
-  </si>
-  <si>
-    <t>20160126045</t>
-  </si>
-  <si>
-    <t>20160126046</t>
-  </si>
-  <si>
-    <t>20160126047</t>
-  </si>
-  <si>
-    <t>20160126048</t>
-  </si>
-  <si>
-    <t>20160126049</t>
-  </si>
-  <si>
-    <t>20160126052</t>
-  </si>
-  <si>
-    <t>20160126051</t>
-  </si>
-  <si>
-    <t>20160126053</t>
-  </si>
-  <si>
-    <t>20160126054</t>
-  </si>
-  <si>
-    <t>20160126055</t>
-  </si>
-  <si>
-    <t>20160126056</t>
-  </si>
-  <si>
-    <t>20160126057</t>
-  </si>
-  <si>
-    <t>20160126058</t>
-  </si>
-  <si>
-    <t>20160126059</t>
-  </si>
-  <si>
-    <t>20160126061</t>
-  </si>
-  <si>
-    <t>20160126062</t>
-  </si>
-  <si>
-    <t>20160126063</t>
-  </si>
-  <si>
-    <t>20160126064</t>
-  </si>
-  <si>
-    <t>20160126065</t>
-  </si>
-  <si>
-    <t>20160126066</t>
-  </si>
-  <si>
-    <t>20160126067</t>
-  </si>
-  <si>
-    <t>20160126068</t>
-  </si>
-  <si>
-    <t>20160126069</t>
-  </si>
-  <si>
-    <t>20160126071</t>
-  </si>
-  <si>
-    <t>20160126072</t>
-  </si>
-  <si>
-    <t>20160126073</t>
-  </si>
-  <si>
-    <t>20160126074</t>
-  </si>
-  <si>
-    <t>20160126075</t>
-  </si>
-  <si>
-    <t>20160126076</t>
-  </si>
-  <si>
-    <t>20160126077</t>
-  </si>
-  <si>
-    <t>20160126078</t>
-  </si>
-  <si>
-    <t>20160126079</t>
-  </si>
-  <si>
-    <t>Test20160126002</t>
-  </si>
-  <si>
-    <t>Test20160126031</t>
-  </si>
-  <si>
-    <t>Test20160126021</t>
-  </si>
-  <si>
-    <t>Test20160126051</t>
-  </si>
-  <si>
-    <t>Test20160126041</t>
-  </si>
-  <si>
-    <t>Test20160126071</t>
-  </si>
-  <si>
-    <t>Test20160126061</t>
-  </si>
-  <si>
-    <t>Test20160126004</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Test20160126012</t>
-  </si>
-  <si>
-    <t>Test20160126013</t>
-  </si>
-  <si>
-    <t>Test20160126005</t>
-  </si>
-  <si>
-    <t>Test20160126006</t>
-  </si>
-  <si>
-    <t>Test20160126032</t>
-  </si>
-  <si>
-    <t>Test20160126033</t>
-  </si>
-  <si>
-    <t>Test20160126022</t>
-  </si>
-  <si>
-    <t>Test20160126023</t>
-  </si>
-  <si>
-    <t>Test20160126052</t>
-  </si>
-  <si>
-    <t>Test20160126042</t>
-  </si>
-  <si>
-    <t>Test20160126043</t>
-  </si>
-  <si>
-    <t>Test20160126072</t>
-  </si>
-  <si>
-    <t>Test20160126062</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,15 +393,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -741,11 +428,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+      <c r="A2" s="1">
+        <v>20160127001</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -760,15 +447,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
+      <c r="A3" s="1">
+        <v>20160127002</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -783,15 +470,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+      <c r="A4" s="1">
+        <v>20160127003</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -810,11 +497,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
+      <c r="A5" s="1">
+        <v>20160127004</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -829,15 +516,15 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
+      <c r="A6" s="1">
+        <v>20160127005</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -852,15 +539,15 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
+      <c r="A7" s="1">
+        <v>20160127006</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -875,12 +562,12 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
+      <c r="A8" s="1">
+        <v>20160127007</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -902,8 +589,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
+      <c r="A9" s="1">
+        <v>20160127008</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -925,8 +612,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
+      <c r="A10" s="1">
+        <v>20160127009</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -948,8 +635,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="1">
+        <v>20160127010</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1190,13 +877,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1223,11 +910,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
+      <c r="A2" s="1">
+        <v>20160127011</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1246,11 +933,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
+      <c r="A3" s="1">
+        <v>20160127012</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1265,15 +952,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
+      <c r="A4" s="1">
+        <v>20160127013</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1288,12 +975,12 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
+      <c r="A5" s="1">
+        <v>20160127014</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1315,8 +1002,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
+      <c r="A6" s="1">
+        <v>20160127015</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1338,8 +1025,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
+      <c r="A7" s="1">
+        <v>20160127016</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1361,8 +1048,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
+      <c r="A8" s="1">
+        <v>20160127017</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1384,8 +1071,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
+      <c r="A9" s="1">
+        <v>20160127018</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1407,8 +1094,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
+      <c r="A10" s="1">
+        <v>20160127019</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1430,8 +1117,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
+      <c r="A11" s="1">
+        <v>20160127020</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1462,12 +1149,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1494,11 +1181,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
+      <c r="A2" s="1">
+        <v>20160127021</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1513,15 +1200,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
+      <c r="A3" s="1">
+        <v>20160127022</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1536,15 +1223,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
+      <c r="A4" s="1">
+        <v>20160127023</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1559,12 +1246,12 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
+      <c r="A5" s="1">
+        <v>20160127024</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1586,8 +1273,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
+      <c r="A6" s="1">
+        <v>20160127025</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1609,8 +1296,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
+      <c r="A7" s="1">
+        <v>20160127026</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1632,8 +1319,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
+      <c r="A8" s="1">
+        <v>20160127027</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1655,8 +1342,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
+      <c r="A9" s="1">
+        <v>20160127028</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1678,8 +1365,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
+      <c r="A10" s="1">
+        <v>20160127029</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1701,8 +1388,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
+      <c r="A11" s="1">
+        <v>20160127030</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1733,12 +1420,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,11 +1452,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
+      <c r="A2" s="1">
+        <v>20160127031</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1784,15 +1471,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
+      <c r="A3" s="1">
+        <v>20160127032</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1807,15 +1494,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
+      <c r="A4" s="1">
+        <v>20160127033</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1830,12 +1517,12 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
+      <c r="A5" s="1">
+        <v>20160127034</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1857,8 +1544,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
+      <c r="A6" s="1">
+        <v>20160127035</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1880,8 +1567,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>52</v>
+      <c r="A7" s="1">
+        <v>20160127036</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1903,8 +1590,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
+      <c r="A8" s="1">
+        <v>20160127037</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1926,8 +1613,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>53</v>
+      <c r="A9" s="1">
+        <v>20160127038</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1949,8 +1636,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
+      <c r="A10" s="1">
+        <v>20160127039</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1972,8 +1659,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
+      <c r="A11" s="1">
+        <v>20160127040</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2004,12 +1691,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2036,11 +1723,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
+      <c r="A2" s="1">
+        <v>20160127041</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2055,15 +1742,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>56</v>
+      <c r="A3" s="1">
+        <v>20160127042</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2078,15 +1765,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>57</v>
+      <c r="A4" s="1">
+        <v>20160127043</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2101,12 +1788,12 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
+      <c r="A5" s="1">
+        <v>20160127044</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2128,8 +1815,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
+      <c r="A6" s="1">
+        <v>20160127045</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2151,8 +1838,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
+      <c r="A7" s="1">
+        <v>20160127046</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2174,8 +1861,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>61</v>
+      <c r="A8" s="1">
+        <v>20160127047</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2197,8 +1884,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
+      <c r="A9" s="1">
+        <v>20160127048</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2220,8 +1907,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>63</v>
+      <c r="A10" s="1">
+        <v>20160127049</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2243,8 +1930,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
+      <c r="A11" s="1">
+        <v>20160127050</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2275,12 +1962,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2307,11 +1994,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
+      <c r="A2" s="1">
+        <v>20160127051</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2326,15 +2013,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>64</v>
+      <c r="A3" s="1">
+        <v>20160127052</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2349,12 +2036,12 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
+      <c r="A4" s="1">
+        <v>20160127053</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2376,8 +2063,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>67</v>
+      <c r="A5" s="1">
+        <v>20160127054</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2399,8 +2086,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>68</v>
+      <c r="A6" s="1">
+        <v>20160127055</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2422,8 +2109,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>69</v>
+      <c r="A7" s="1">
+        <v>20160127056</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2445,8 +2132,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>70</v>
+      <c r="A8" s="1">
+        <v>20160127057</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2468,8 +2155,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>71</v>
+      <c r="A9" s="1">
+        <v>20160127058</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2491,8 +2178,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>72</v>
+      <c r="A10" s="1">
+        <v>20160127059</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2514,8 +2201,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
+      <c r="A11" s="1">
+        <v>20160127060</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2546,12 +2233,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2578,11 +2265,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>73</v>
+      <c r="A2" s="1">
+        <v>20160127061</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2597,15 +2284,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>74</v>
+      <c r="A3" s="1">
+        <v>20160127062</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2620,12 +2307,12 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>75</v>
+      <c r="A4" s="1">
+        <v>20160127063</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2647,8 +2334,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>76</v>
+      <c r="A5" s="1">
+        <v>20160127064</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2670,8 +2357,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>77</v>
+      <c r="A6" s="1">
+        <v>20160127065</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2693,8 +2380,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>78</v>
+      <c r="A7" s="1">
+        <v>20160127066</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2716,8 +2403,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>79</v>
+      <c r="A8" s="1">
+        <v>20160127067</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2739,8 +2426,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>80</v>
+      <c r="A9" s="1">
+        <v>20160127068</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2762,8 +2449,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>81</v>
+      <c r="A10" s="1">
+        <v>20160127069</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2785,8 +2472,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
+      <c r="A11" s="1">
+        <v>20160127070</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2816,13 +2503,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2849,11 +2536,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>82</v>
+      <c r="A2" s="1">
+        <v>20160127071</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2868,15 +2555,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>83</v>
+      <c r="A3" s="1">
+        <v>20160127072</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2891,12 +2578,12 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>84</v>
+      <c r="A4" s="1">
+        <v>20160127073</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2918,8 +2605,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
+      <c r="A5" s="1">
+        <v>20160127074</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2941,8 +2628,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>86</v>
+      <c r="A6" s="1">
+        <v>20160127075</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2964,8 +2651,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>87</v>
+      <c r="A7" s="1">
+        <v>20160127076</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2987,8 +2674,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>88</v>
+      <c r="A8" s="1">
+        <v>20160127077</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -3010,8 +2697,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>89</v>
+      <c r="A9" s="1">
+        <v>20160127078</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -3033,8 +2720,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>90</v>
+      <c r="A10" s="1">
+        <v>20160127079</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -3056,8 +2743,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
+      <c r="A11" s="1">
+        <v>20160127080</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>

--- a/test/integration/TestAccs.xlsx
+++ b/test/integration/TestAccs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="2685" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="2625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SAQA" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="SAQD" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N6"/>
+  <oleSize ref="A7:M12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="114">
   <si>
     <t>Mid</t>
   </si>
@@ -49,13 +49,329 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>20160127001</t>
+  </si>
+  <si>
+    <t>20160127002</t>
+  </si>
+  <si>
+    <t>20160127003</t>
+  </si>
+  <si>
+    <t>20160127004</t>
+  </si>
+  <si>
+    <t>20160127005</t>
+  </si>
+  <si>
+    <t>20160127006</t>
+  </si>
+  <si>
+    <t>20160127007</t>
+  </si>
+  <si>
+    <t>20160127011</t>
+  </si>
+  <si>
+    <t>20160127012</t>
+  </si>
+  <si>
+    <t>20160127013</t>
+  </si>
+  <si>
+    <t>20160127014</t>
+  </si>
+  <si>
+    <t>20160127015</t>
+  </si>
+  <si>
+    <t>20160127016</t>
+  </si>
+  <si>
+    <t>20160127017</t>
+  </si>
+  <si>
+    <t>20160127018</t>
+  </si>
+  <si>
+    <t>20160127019</t>
+  </si>
+  <si>
+    <t>20160127020</t>
+  </si>
+  <si>
+    <t>20160127021</t>
+  </si>
+  <si>
+    <t>20160127022</t>
+  </si>
+  <si>
+    <t>20160127023</t>
+  </si>
+  <si>
+    <t>20160127024</t>
+  </si>
+  <si>
+    <t>20160127025</t>
+  </si>
+  <si>
+    <t>20160127026</t>
+  </si>
+  <si>
+    <t>20160127027</t>
+  </si>
+  <si>
+    <t>20160127028</t>
+  </si>
+  <si>
+    <t>20160127029</t>
+  </si>
+  <si>
+    <t>20160127030</t>
+  </si>
+  <si>
+    <t>20160127031</t>
+  </si>
+  <si>
+    <t>20160127032</t>
+  </si>
+  <si>
+    <t>20160127033</t>
+  </si>
+  <si>
+    <t>20160127034</t>
+  </si>
+  <si>
+    <t>20160127035</t>
+  </si>
+  <si>
+    <t>20160127036</t>
+  </si>
+  <si>
+    <t>20160127037</t>
+  </si>
+  <si>
+    <t>20160127038</t>
+  </si>
+  <si>
+    <t>20160127039</t>
+  </si>
+  <si>
+    <t>20160127040</t>
+  </si>
+  <si>
+    <t>20160127041</t>
+  </si>
+  <si>
+    <t>20160127042</t>
+  </si>
+  <si>
+    <t>20160127043</t>
+  </si>
+  <si>
+    <t>20160127044</t>
+  </si>
+  <si>
+    <t>20160127045</t>
+  </si>
+  <si>
+    <t>20160127046</t>
+  </si>
+  <si>
+    <t>20160127047</t>
+  </si>
+  <si>
+    <t>20160127048</t>
+  </si>
+  <si>
+    <t>20160127049</t>
+  </si>
+  <si>
+    <t>20160127050</t>
+  </si>
+  <si>
+    <t>20160127051</t>
+  </si>
+  <si>
+    <t>20160127052</t>
+  </si>
+  <si>
+    <t>20160127053</t>
+  </si>
+  <si>
+    <t>20160127054</t>
+  </si>
+  <si>
+    <t>20160127055</t>
+  </si>
+  <si>
+    <t>20160127056</t>
+  </si>
+  <si>
+    <t>20160127057</t>
+  </si>
+  <si>
+    <t>20160127058</t>
+  </si>
+  <si>
+    <t>20160127059</t>
+  </si>
+  <si>
+    <t>20160127061</t>
+  </si>
+  <si>
+    <t>20160127062</t>
+  </si>
+  <si>
+    <t>20160127063</t>
+  </si>
+  <si>
+    <t>20160127064</t>
+  </si>
+  <si>
+    <t>20160127065</t>
+  </si>
+  <si>
+    <t>20160127066</t>
+  </si>
+  <si>
+    <t>20160127067</t>
+  </si>
+  <si>
+    <t>20160127068</t>
+  </si>
+  <si>
+    <t>20160127069</t>
+  </si>
+  <si>
+    <t>20160127070</t>
+  </si>
+  <si>
+    <t>20160127071</t>
+  </si>
+  <si>
+    <t>20160127072</t>
+  </si>
+  <si>
+    <t>20160127073</t>
+  </si>
+  <si>
+    <t>20160127074</t>
+  </si>
+  <si>
+    <t>20160127075</t>
+  </si>
+  <si>
+    <t>20160127076</t>
+  </si>
+  <si>
+    <t>20160127078</t>
+  </si>
+  <si>
+    <t>20160127077</t>
+  </si>
+  <si>
+    <t>20160127079</t>
+  </si>
+  <si>
+    <t>20160127080</t>
+  </si>
+  <si>
+    <t>Test20160127001</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Test20160127002</t>
+  </si>
+  <si>
+    <t>Test20160127031</t>
+  </si>
+  <si>
+    <t>Test20160127032</t>
+  </si>
+  <si>
+    <t>Test20160127021</t>
+  </si>
+  <si>
+    <t>Test20160127022</t>
+  </si>
+  <si>
+    <t>Test20160127051</t>
+  </si>
+  <si>
+    <t>Test20160127041</t>
+  </si>
+  <si>
+    <t>Test20160127042</t>
+  </si>
+  <si>
+    <t>Test20160127071</t>
+  </si>
+  <si>
+    <t>Test20160127072</t>
+  </si>
+  <si>
+    <t>Test20160127061</t>
+  </si>
+  <si>
+    <t>Test20160127062</t>
+  </si>
+  <si>
+    <t>Test20160127004</t>
+  </si>
+  <si>
+    <t>Test20160127005</t>
+  </si>
+  <si>
+    <t>Test20160127007</t>
+  </si>
+  <si>
+    <t>Test20160127019</t>
+  </si>
+  <si>
+    <t>Test20160127029</t>
+  </si>
+  <si>
+    <t>Test20160127030</t>
+  </si>
+  <si>
+    <t>Test20160127023</t>
+  </si>
+  <si>
+    <t>Test20160127025</t>
+  </si>
+  <si>
+    <t>Test20160127026</t>
+  </si>
+  <si>
+    <t>Test20160127028</t>
+  </si>
+  <si>
+    <t>Test20160127049</t>
+  </si>
+  <si>
+    <t>Test20160127043</t>
+  </si>
+  <si>
+    <t>Test20160127044</t>
+  </si>
+  <si>
+    <t>Test20160127063</t>
+  </si>
+  <si>
+    <t>Test20160127064</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,17 +707,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -427,12 +744,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>20160127001</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -447,15 +764,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>20160127002</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -470,15 +787,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>20160127003</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -496,12 +813,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>20160127004</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -516,15 +833,15 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>20160127005</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -539,15 +856,15 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>20160127006</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -565,12 +882,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>20160127007</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -585,15 +902,15 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>20160127008</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -608,15 +925,15 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>20160127009</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -631,15 +948,15 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>20160127010</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -654,218 +971,8 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -877,13 +984,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,8 +1017,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>20160127011</v>
+      <c r="A2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -933,8 +1040,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>20160127012</v>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -956,8 +1063,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>20160127013</v>
+      <c r="A4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -979,8 +1086,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>20160127014</v>
+      <c r="A5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1002,8 +1109,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>20160127015</v>
+      <c r="A6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1025,8 +1132,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>20160127016</v>
+      <c r="A7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1048,8 +1155,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>20160127017</v>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1071,8 +1178,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>20160127018</v>
+      <c r="A9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1094,8 +1201,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>20160127019</v>
+      <c r="A10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1117,8 +1224,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>20160127020</v>
+      <c r="A11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1148,13 +1255,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1181,11 +1288,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>20160127021</v>
+      <c r="A2" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1200,15 +1307,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>20160127022</v>
+      <c r="A3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1223,15 +1330,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>20160127023</v>
+      <c r="A4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1246,15 +1353,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>20160127024</v>
+      <c r="A5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1273,11 +1380,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>20160127025</v>
+      <c r="A6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1292,15 +1399,15 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>20160127026</v>
+      <c r="A7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1315,15 +1422,15 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>20160127027</v>
+      <c r="A8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -1342,11 +1449,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>20160127028</v>
+      <c r="A9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1361,15 +1468,15 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>20160127029</v>
+      <c r="A10" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1384,12 +1491,12 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>20160127030</v>
+      <c r="A11" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1419,13 +1526,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1452,11 +1559,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>20160127031</v>
+      <c r="A2" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1471,15 +1578,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>20160127032</v>
+      <c r="A3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1494,12 +1601,12 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>20160127033</v>
+      <c r="A4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1521,8 +1628,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>20160127034</v>
+      <c r="A5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1544,8 +1651,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>20160127035</v>
+      <c r="A6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1567,8 +1674,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>20160127036</v>
+      <c r="A7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1590,8 +1697,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>20160127037</v>
+      <c r="A8" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1613,8 +1720,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>20160127038</v>
+      <c r="A9" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1636,8 +1743,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>20160127039</v>
+      <c r="A10" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1659,8 +1766,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>20160127040</v>
+      <c r="A11" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1690,13 +1797,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1723,11 +1830,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>20160127041</v>
+      <c r="A2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1742,15 +1849,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>20160127042</v>
+      <c r="A3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1765,15 +1872,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>20160127043</v>
+      <c r="A4" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1788,15 +1895,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>20160127044</v>
+      <c r="A5" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1811,12 +1918,12 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>20160127045</v>
+      <c r="A6" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1838,8 +1945,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>20160127046</v>
+      <c r="A7" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1861,8 +1968,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>20160127047</v>
+      <c r="A8" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1884,8 +1991,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>20160127048</v>
+      <c r="A9" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1907,8 +2014,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>20160127049</v>
+      <c r="A10" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1930,8 +2037,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>20160127050</v>
+      <c r="A11" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1962,12 +2069,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,11 +2101,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>20160127051</v>
+      <c r="A2" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2013,12 +2120,12 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>20160127052</v>
+      <c r="A3" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2040,8 +2147,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>20160127053</v>
+      <c r="A4" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2063,8 +2170,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>20160127054</v>
+      <c r="A5" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2086,8 +2193,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>20160127055</v>
+      <c r="A6" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2109,8 +2216,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>20160127056</v>
+      <c r="A7" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2132,8 +2239,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>20160127057</v>
+      <c r="A8" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2155,8 +2262,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>20160127058</v>
+      <c r="A9" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2178,8 +2285,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>20160127059</v>
+      <c r="A10" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2233,12 +2340,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2265,11 +2372,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>20160127061</v>
+      <c r="A2" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2284,15 +2391,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>20160127062</v>
+      <c r="A3" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2307,15 +2414,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>20160127063</v>
+      <c r="A4" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2330,15 +2437,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>20160127064</v>
+      <c r="A5" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2353,12 +2460,12 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>20160127065</v>
+      <c r="A6" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2380,8 +2487,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>20160127066</v>
+      <c r="A7" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2403,8 +2510,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>20160127067</v>
+      <c r="A8" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2426,8 +2533,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>20160127068</v>
+      <c r="A9" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2449,8 +2556,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>20160127069</v>
+      <c r="A10" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2472,8 +2579,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>20160127070</v>
+      <c r="A11" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2503,13 +2610,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2536,11 +2643,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>20160127071</v>
+      <c r="A2" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2555,15 +2662,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>20160127072</v>
+      <c r="A3" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2578,12 +2685,12 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>20160127073</v>
+      <c r="A4" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2605,8 +2712,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>20160127074</v>
+      <c r="A5" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2628,8 +2735,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>20160127075</v>
+      <c r="A6" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2651,8 +2758,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>20160127076</v>
+      <c r="A7" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2674,8 +2781,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>20160127077</v>
+      <c r="A8" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2697,8 +2804,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>20160127078</v>
+      <c r="A9" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2720,8 +2827,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>20160127079</v>
+      <c r="A10" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2743,8 +2850,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>20160127080</v>
+      <c r="A11" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>

--- a/test/integration/TestAccs.xlsx
+++ b/test/integration/TestAccs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="2625" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="2775" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SAQA" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="SAQD" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A7:M12"/>
+  <oleSize ref="A1:N7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="105">
   <si>
     <t>Mid</t>
   </si>
@@ -51,319 +51,292 @@
     <t>Username</t>
   </si>
   <si>
-    <t>20160127001</t>
-  </si>
-  <si>
-    <t>20160127002</t>
-  </si>
-  <si>
-    <t>20160127003</t>
-  </si>
-  <si>
-    <t>20160127004</t>
-  </si>
-  <si>
-    <t>20160127005</t>
-  </si>
-  <si>
-    <t>20160127006</t>
-  </si>
-  <si>
-    <t>20160127007</t>
-  </si>
-  <si>
-    <t>20160127011</t>
-  </si>
-  <si>
-    <t>20160127012</t>
-  </si>
-  <si>
-    <t>20160127013</t>
-  </si>
-  <si>
-    <t>20160127014</t>
-  </si>
-  <si>
-    <t>20160127015</t>
-  </si>
-  <si>
-    <t>20160127016</t>
-  </si>
-  <si>
-    <t>20160127017</t>
-  </si>
-  <si>
-    <t>20160127018</t>
-  </si>
-  <si>
-    <t>20160127019</t>
-  </si>
-  <si>
-    <t>20160127020</t>
-  </si>
-  <si>
-    <t>20160127021</t>
-  </si>
-  <si>
-    <t>20160127022</t>
-  </si>
-  <si>
-    <t>20160127023</t>
-  </si>
-  <si>
-    <t>20160127024</t>
-  </si>
-  <si>
-    <t>20160127025</t>
-  </si>
-  <si>
-    <t>20160127026</t>
-  </si>
-  <si>
-    <t>20160127027</t>
-  </si>
-  <si>
-    <t>20160127028</t>
-  </si>
-  <si>
-    <t>20160127029</t>
-  </si>
-  <si>
-    <t>20160127030</t>
-  </si>
-  <si>
-    <t>20160127031</t>
-  </si>
-  <si>
-    <t>20160127032</t>
-  </si>
-  <si>
-    <t>20160127033</t>
-  </si>
-  <si>
-    <t>20160127034</t>
-  </si>
-  <si>
-    <t>20160127035</t>
-  </si>
-  <si>
-    <t>20160127036</t>
-  </si>
-  <si>
-    <t>20160127037</t>
-  </si>
-  <si>
-    <t>20160127038</t>
-  </si>
-  <si>
-    <t>20160127039</t>
-  </si>
-  <si>
-    <t>20160127040</t>
-  </si>
-  <si>
-    <t>20160127041</t>
-  </si>
-  <si>
-    <t>20160127042</t>
-  </si>
-  <si>
-    <t>20160127043</t>
-  </si>
-  <si>
-    <t>20160127044</t>
-  </si>
-  <si>
-    <t>20160127045</t>
-  </si>
-  <si>
-    <t>20160127046</t>
-  </si>
-  <si>
-    <t>20160127047</t>
-  </si>
-  <si>
-    <t>20160127048</t>
-  </si>
-  <si>
-    <t>20160127049</t>
-  </si>
-  <si>
-    <t>20160127050</t>
-  </si>
-  <si>
-    <t>20160127051</t>
-  </si>
-  <si>
-    <t>20160127052</t>
-  </si>
-  <si>
-    <t>20160127053</t>
-  </si>
-  <si>
-    <t>20160127054</t>
-  </si>
-  <si>
-    <t>20160127055</t>
-  </si>
-  <si>
-    <t>20160127056</t>
-  </si>
-  <si>
-    <t>20160127057</t>
-  </si>
-  <si>
-    <t>20160127058</t>
-  </si>
-  <si>
-    <t>20160127059</t>
-  </si>
-  <si>
-    <t>20160127061</t>
-  </si>
-  <si>
-    <t>20160127062</t>
-  </si>
-  <si>
-    <t>20160127063</t>
-  </si>
-  <si>
-    <t>20160127064</t>
-  </si>
-  <si>
-    <t>20160127065</t>
-  </si>
-  <si>
-    <t>20160127066</t>
-  </si>
-  <si>
-    <t>20160127067</t>
-  </si>
-  <si>
-    <t>20160127068</t>
-  </si>
-  <si>
-    <t>20160127069</t>
-  </si>
-  <si>
-    <t>20160127070</t>
-  </si>
-  <si>
-    <t>20160127071</t>
-  </si>
-  <si>
-    <t>20160127072</t>
-  </si>
-  <si>
-    <t>20160127073</t>
-  </si>
-  <si>
-    <t>20160127074</t>
-  </si>
-  <si>
-    <t>20160127075</t>
-  </si>
-  <si>
-    <t>20160127076</t>
-  </si>
-  <si>
-    <t>20160127078</t>
-  </si>
-  <si>
-    <t>20160127077</t>
-  </si>
-  <si>
-    <t>20160127079</t>
-  </si>
-  <si>
-    <t>20160127080</t>
-  </si>
-  <si>
-    <t>Test20160127001</t>
+    <t>20160129071</t>
+  </si>
+  <si>
+    <t>20160129072</t>
+  </si>
+  <si>
+    <t>20160129073</t>
+  </si>
+  <si>
+    <t>20160129074</t>
+  </si>
+  <si>
+    <t>20160129075</t>
+  </si>
+  <si>
+    <t>20160129076</t>
+  </si>
+  <si>
+    <t>20160129080</t>
+  </si>
+  <si>
+    <t>20160129079</t>
+  </si>
+  <si>
+    <t>20160129078</t>
+  </si>
+  <si>
+    <t>20160129077</t>
+  </si>
+  <si>
+    <t>20160129061</t>
+  </si>
+  <si>
+    <t>20160129062</t>
+  </si>
+  <si>
+    <t>20160129063</t>
+  </si>
+  <si>
+    <t>20160129064</t>
+  </si>
+  <si>
+    <t>20160129065</t>
+  </si>
+  <si>
+    <t>20160129066</t>
+  </si>
+  <si>
+    <t>20160129067</t>
+  </si>
+  <si>
+    <t>20160129068</t>
+  </si>
+  <si>
+    <t>20160129069</t>
+  </si>
+  <si>
+    <t>20160129070</t>
+  </si>
+  <si>
+    <t>20160129051</t>
+  </si>
+  <si>
+    <t>20160129052</t>
+  </si>
+  <si>
+    <t>20160129053</t>
+  </si>
+  <si>
+    <t>20160129054</t>
+  </si>
+  <si>
+    <t>20160129055</t>
+  </si>
+  <si>
+    <t>20160129056</t>
+  </si>
+  <si>
+    <t>20160129057</t>
+  </si>
+  <si>
+    <t>20160129058</t>
+  </si>
+  <si>
+    <t>20160129059</t>
+  </si>
+  <si>
+    <t>20160129060</t>
+  </si>
+  <si>
+    <t>20160129041</t>
+  </si>
+  <si>
+    <t>20160129042</t>
+  </si>
+  <si>
+    <t>20160129043</t>
+  </si>
+  <si>
+    <t>20160129050</t>
+  </si>
+  <si>
+    <t>20160129049</t>
+  </si>
+  <si>
+    <t>20160129048</t>
+  </si>
+  <si>
+    <t>20160129047</t>
+  </si>
+  <si>
+    <t>20160129046</t>
+  </si>
+  <si>
+    <t>20160129045</t>
+  </si>
+  <si>
+    <t>20160129044</t>
+  </si>
+  <si>
+    <t>20160129031</t>
+  </si>
+  <si>
+    <t>20160129032</t>
+  </si>
+  <si>
+    <t>20160129033</t>
+  </si>
+  <si>
+    <t>20160129034</t>
+  </si>
+  <si>
+    <t>20160129035</t>
+  </si>
+  <si>
+    <t>20160129038</t>
+  </si>
+  <si>
+    <t>20160129037</t>
+  </si>
+  <si>
+    <t>20160129036</t>
+  </si>
+  <si>
+    <t>20160129021</t>
+  </si>
+  <si>
+    <t>20160129022</t>
+  </si>
+  <si>
+    <t>20160129023</t>
+  </si>
+  <si>
+    <t>20160129024</t>
+  </si>
+  <si>
+    <t>20160129025</t>
+  </si>
+  <si>
+    <t>20160129026</t>
+  </si>
+  <si>
+    <t>20160129027</t>
+  </si>
+  <si>
+    <t>20160129028</t>
+  </si>
+  <si>
+    <t>20160129029</t>
+  </si>
+  <si>
+    <t>20160129030</t>
+  </si>
+  <si>
+    <t>20160129020</t>
+  </si>
+  <si>
+    <t>20160129019</t>
+  </si>
+  <si>
+    <t>20160129018</t>
+  </si>
+  <si>
+    <t>20160129017</t>
+  </si>
+  <si>
+    <t>20160129016</t>
+  </si>
+  <si>
+    <t>20160129015</t>
+  </si>
+  <si>
+    <t>20160129014</t>
+  </si>
+  <si>
+    <t>20160129013</t>
+  </si>
+  <si>
+    <t>20160129012</t>
+  </si>
+  <si>
+    <t>20160129011</t>
+  </si>
+  <si>
+    <t>20160129001</t>
+  </si>
+  <si>
+    <t>20160129002</t>
+  </si>
+  <si>
+    <t>20160129003</t>
+  </si>
+  <si>
+    <t>20160129004</t>
+  </si>
+  <si>
+    <t>20160129005</t>
+  </si>
+  <si>
+    <t>20160129006</t>
+  </si>
+  <si>
+    <t>20160129007</t>
+  </si>
+  <si>
+    <t>20160129008</t>
+  </si>
+  <si>
+    <t>20160129009</t>
+  </si>
+  <si>
+    <t>20160129010</t>
+  </si>
+  <si>
+    <t>Test20160129011</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>Test20160127002</t>
-  </si>
-  <si>
-    <t>Test20160127031</t>
-  </si>
-  <si>
-    <t>Test20160127032</t>
-  </si>
-  <si>
-    <t>Test20160127021</t>
-  </si>
-  <si>
-    <t>Test20160127022</t>
-  </si>
-  <si>
-    <t>Test20160127051</t>
-  </si>
-  <si>
-    <t>Test20160127041</t>
-  </si>
-  <si>
-    <t>Test20160127042</t>
-  </si>
-  <si>
-    <t>Test20160127071</t>
-  </si>
-  <si>
-    <t>Test20160127072</t>
-  </si>
-  <si>
-    <t>Test20160127061</t>
-  </si>
-  <si>
-    <t>Test20160127062</t>
-  </si>
-  <si>
-    <t>Test20160127004</t>
-  </si>
-  <si>
-    <t>Test20160127005</t>
-  </si>
-  <si>
-    <t>Test20160127007</t>
-  </si>
-  <si>
-    <t>Test20160127019</t>
-  </si>
-  <si>
-    <t>Test20160127029</t>
-  </si>
-  <si>
-    <t>Test20160127030</t>
-  </si>
-  <si>
-    <t>Test20160127023</t>
-  </si>
-  <si>
-    <t>Test20160127025</t>
-  </si>
-  <si>
-    <t>Test20160127026</t>
-  </si>
-  <si>
-    <t>Test20160127028</t>
-  </si>
-  <si>
-    <t>Test20160127049</t>
-  </si>
-  <si>
-    <t>Test20160127043</t>
-  </si>
-  <si>
-    <t>Test20160127044</t>
-  </si>
-  <si>
-    <t>Test20160127063</t>
-  </si>
-  <si>
-    <t>Test20160127064</t>
+    <t>Test20160129012</t>
+  </si>
+  <si>
+    <t>Test20160129001</t>
+  </si>
+  <si>
+    <t>Test20160129002</t>
+  </si>
+  <si>
+    <t>Test20160129031</t>
+  </si>
+  <si>
+    <t>Test20160129032</t>
+  </si>
+  <si>
+    <t>Test20160129051</t>
+  </si>
+  <si>
+    <t>Test20160129041</t>
+  </si>
+  <si>
+    <t>Test20160129042</t>
+  </si>
+  <si>
+    <t>Test20160129071</t>
+  </si>
+  <si>
+    <t>Test20160129061</t>
+  </si>
+  <si>
+    <t>Test20160129062</t>
+  </si>
+  <si>
+    <t>Test20160129059</t>
+  </si>
+  <si>
+    <t>Test20160129060</t>
+  </si>
+  <si>
+    <t>Test20160129013</t>
+  </si>
+  <si>
+    <t>Test20160129053</t>
+  </si>
+  <si>
+    <t>Test20160129054</t>
   </si>
 </sst>
 </file>
@@ -709,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,10 +719,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -764,15 +737,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -787,15 +760,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -815,10 +788,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -833,15 +806,15 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -856,15 +829,15 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -884,10 +857,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -902,15 +875,15 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -925,15 +898,15 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -948,15 +921,15 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -971,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -984,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,10 +991,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1036,15 +1009,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1059,15 +1032,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1082,15 +1055,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1110,7 +1083,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1133,7 +1106,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1156,7 +1129,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1179,7 +1152,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1202,7 +1175,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1225,7 +1198,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1255,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,10 +1262,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1307,15 +1280,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1330,15 +1303,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1353,15 +1326,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1381,10 +1354,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1399,15 +1372,15 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1422,15 +1395,15 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -1450,10 +1423,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1468,15 +1441,15 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1491,12 +1464,12 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1527,7 +1500,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,10 +1533,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1578,15 +1551,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1601,15 +1574,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1629,10 +1602,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1652,10 +1625,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1675,10 +1648,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1698,10 +1671,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -1721,10 +1694,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1744,10 +1717,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1762,15 +1735,15 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -1785,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1797,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,10 +1804,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1849,15 +1822,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1872,15 +1845,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1895,15 +1868,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1918,12 +1891,12 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1946,7 +1919,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1969,7 +1942,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1992,7 +1965,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2015,7 +1988,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2038,7 +2011,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2069,7 +2042,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,10 +2075,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2120,15 +2093,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2148,10 +2121,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2166,15 +2139,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2189,12 +2162,12 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2217,7 +2190,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2240,7 +2213,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2263,7 +2236,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2286,7 +2259,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2308,8 +2281,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>20160127060</v>
+      <c r="A11" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2373,10 +2346,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2391,15 +2364,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2414,15 +2387,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2437,15 +2410,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2460,12 +2433,12 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2488,7 +2461,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2511,7 +2484,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2534,7 +2507,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2557,7 +2530,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2580,7 +2553,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2610,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2644,10 +2617,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2662,15 +2635,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2685,12 +2658,12 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2713,7 +2686,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2736,7 +2709,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2759,7 +2732,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2782,7 +2755,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2805,7 +2778,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2828,7 +2801,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2851,7 +2824,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>

--- a/test/integration/TestAccs.xlsx
+++ b/test/integration/TestAccs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="2775" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="2220" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SAQA" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="SAQD" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N7"/>
+  <oleSize ref="A1:N5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="119">
   <si>
     <t>Mid</t>
   </si>
@@ -51,292 +51,334 @@
     <t>Username</t>
   </si>
   <si>
-    <t>20160129071</t>
-  </si>
-  <si>
-    <t>20160129072</t>
-  </si>
-  <si>
-    <t>20160129073</t>
-  </si>
-  <si>
-    <t>20160129074</t>
-  </si>
-  <si>
-    <t>20160129075</t>
-  </si>
-  <si>
-    <t>20160129076</t>
-  </si>
-  <si>
-    <t>20160129080</t>
-  </si>
-  <si>
-    <t>20160129079</t>
-  </si>
-  <si>
-    <t>20160129078</t>
-  </si>
-  <si>
-    <t>20160129077</t>
-  </si>
-  <si>
-    <t>20160129061</t>
-  </si>
-  <si>
-    <t>20160129062</t>
-  </si>
-  <si>
-    <t>20160129063</t>
-  </si>
-  <si>
-    <t>20160129064</t>
-  </si>
-  <si>
-    <t>20160129065</t>
-  </si>
-  <si>
-    <t>20160129066</t>
-  </si>
-  <si>
-    <t>20160129067</t>
-  </si>
-  <si>
-    <t>20160129068</t>
-  </si>
-  <si>
-    <t>20160129069</t>
-  </si>
-  <si>
-    <t>20160129070</t>
-  </si>
-  <si>
-    <t>20160129051</t>
-  </si>
-  <si>
-    <t>20160129052</t>
-  </si>
-  <si>
-    <t>20160129053</t>
-  </si>
-  <si>
-    <t>20160129054</t>
-  </si>
-  <si>
-    <t>20160129055</t>
-  </si>
-  <si>
-    <t>20160129056</t>
-  </si>
-  <si>
-    <t>20160129057</t>
-  </si>
-  <si>
-    <t>20160129058</t>
-  </si>
-  <si>
-    <t>20160129059</t>
-  </si>
-  <si>
-    <t>20160129060</t>
-  </si>
-  <si>
-    <t>20160129041</t>
-  </si>
-  <si>
-    <t>20160129042</t>
-  </si>
-  <si>
-    <t>20160129043</t>
-  </si>
-  <si>
-    <t>20160129050</t>
-  </si>
-  <si>
-    <t>20160129049</t>
-  </si>
-  <si>
-    <t>20160129048</t>
-  </si>
-  <si>
-    <t>20160129047</t>
-  </si>
-  <si>
-    <t>20160129046</t>
-  </si>
-  <si>
-    <t>20160129045</t>
-  </si>
-  <si>
-    <t>20160129044</t>
-  </si>
-  <si>
-    <t>20160129031</t>
-  </si>
-  <si>
-    <t>20160129032</t>
-  </si>
-  <si>
-    <t>20160129033</t>
-  </si>
-  <si>
-    <t>20160129034</t>
-  </si>
-  <si>
-    <t>20160129035</t>
-  </si>
-  <si>
-    <t>20160129038</t>
-  </si>
-  <si>
-    <t>20160129037</t>
-  </si>
-  <si>
-    <t>20160129036</t>
-  </si>
-  <si>
-    <t>20160129021</t>
-  </si>
-  <si>
-    <t>20160129022</t>
-  </si>
-  <si>
-    <t>20160129023</t>
-  </si>
-  <si>
-    <t>20160129024</t>
-  </si>
-  <si>
-    <t>20160129025</t>
-  </si>
-  <si>
-    <t>20160129026</t>
-  </si>
-  <si>
-    <t>20160129027</t>
-  </si>
-  <si>
-    <t>20160129028</t>
-  </si>
-  <si>
-    <t>20160129029</t>
-  </si>
-  <si>
-    <t>20160129030</t>
-  </si>
-  <si>
-    <t>20160129020</t>
-  </si>
-  <si>
-    <t>20160129019</t>
-  </si>
-  <si>
-    <t>20160129018</t>
-  </si>
-  <si>
-    <t>20160129017</t>
-  </si>
-  <si>
-    <t>20160129016</t>
-  </si>
-  <si>
-    <t>20160129015</t>
-  </si>
-  <si>
-    <t>20160129014</t>
-  </si>
-  <si>
-    <t>20160129013</t>
-  </si>
-  <si>
-    <t>20160129012</t>
-  </si>
-  <si>
-    <t>20160129011</t>
-  </si>
-  <si>
-    <t>20160129001</t>
-  </si>
-  <si>
-    <t>20160129002</t>
-  </si>
-  <si>
-    <t>20160129003</t>
-  </si>
-  <si>
-    <t>20160129004</t>
-  </si>
-  <si>
-    <t>20160129005</t>
-  </si>
-  <si>
-    <t>20160129006</t>
-  </si>
-  <si>
-    <t>20160129007</t>
-  </si>
-  <si>
-    <t>20160129008</t>
-  </si>
-  <si>
-    <t>20160129009</t>
-  </si>
-  <si>
-    <t>20160129010</t>
-  </si>
-  <si>
-    <t>Test20160129011</t>
+    <t>20160205001</t>
+  </si>
+  <si>
+    <t>20160205002</t>
+  </si>
+  <si>
+    <t>20160205003</t>
+  </si>
+  <si>
+    <t>20160205004</t>
+  </si>
+  <si>
+    <t>20160205005</t>
+  </si>
+  <si>
+    <t>20160205006</t>
+  </si>
+  <si>
+    <t>20160205007</t>
+  </si>
+  <si>
+    <t>20160205008</t>
+  </si>
+  <si>
+    <t>20160205009</t>
+  </si>
+  <si>
+    <t>20160205010</t>
+  </si>
+  <si>
+    <t>20160205011</t>
+  </si>
+  <si>
+    <t>20160205021</t>
+  </si>
+  <si>
+    <t>20160205022</t>
+  </si>
+  <si>
+    <t>20160205023</t>
+  </si>
+  <si>
+    <t>20160205024</t>
+  </si>
+  <si>
+    <t>20160205025</t>
+  </si>
+  <si>
+    <t>20160205026</t>
+  </si>
+  <si>
+    <t>20160205027</t>
+  </si>
+  <si>
+    <t>20160205028</t>
+  </si>
+  <si>
+    <t>20160205029</t>
+  </si>
+  <si>
+    <t>20160205030</t>
+  </si>
+  <si>
+    <t>20160205033</t>
+  </si>
+  <si>
+    <t>20160205034</t>
+  </si>
+  <si>
+    <t>20160205035</t>
+  </si>
+  <si>
+    <t>20160205036</t>
+  </si>
+  <si>
+    <t>20160205037</t>
+  </si>
+  <si>
+    <t>20160205038</t>
+  </si>
+  <si>
+    <t>20160205039</t>
+  </si>
+  <si>
+    <t>20160205040</t>
+  </si>
+  <si>
+    <t>20160205041</t>
+  </si>
+  <si>
+    <t>20160205042</t>
+  </si>
+  <si>
+    <t>20160205043</t>
+  </si>
+  <si>
+    <t>20160205044</t>
+  </si>
+  <si>
+    <t>20160205045</t>
+  </si>
+  <si>
+    <t>20160205046</t>
+  </si>
+  <si>
+    <t>20160205047</t>
+  </si>
+  <si>
+    <t>20160205048</t>
+  </si>
+  <si>
+    <t>20160205049</t>
+  </si>
+  <si>
+    <t>20160205050</t>
+  </si>
+  <si>
+    <t>20160205051</t>
+  </si>
+  <si>
+    <t>20160205052</t>
+  </si>
+  <si>
+    <t>20160205053</t>
+  </si>
+  <si>
+    <t>20160205054</t>
+  </si>
+  <si>
+    <t>20160205055</t>
+  </si>
+  <si>
+    <t>20160205056</t>
+  </si>
+  <si>
+    <t>20160205057</t>
+  </si>
+  <si>
+    <t>20160205058</t>
+  </si>
+  <si>
+    <t>20160205059</t>
+  </si>
+  <si>
+    <t>20160205060</t>
+  </si>
+  <si>
+    <t>20160205061</t>
+  </si>
+  <si>
+    <t>20160205062</t>
+  </si>
+  <si>
+    <t>20160205063</t>
+  </si>
+  <si>
+    <t>20160205064</t>
+  </si>
+  <si>
+    <t>20160205065</t>
+  </si>
+  <si>
+    <t>20160205066</t>
+  </si>
+  <si>
+    <t>20160205067</t>
+  </si>
+  <si>
+    <t>20160205068</t>
+  </si>
+  <si>
+    <t>20160205069</t>
+  </si>
+  <si>
+    <t>20160205070</t>
+  </si>
+  <si>
+    <t>20160205071</t>
+  </si>
+  <si>
+    <t>20160205072</t>
+  </si>
+  <si>
+    <t>20160205073</t>
+  </si>
+  <si>
+    <t>20160205074</t>
+  </si>
+  <si>
+    <t>20160205075</t>
+  </si>
+  <si>
+    <t>20160205080</t>
+  </si>
+  <si>
+    <t>20160205079</t>
+  </si>
+  <si>
+    <t>20160205078</t>
+  </si>
+  <si>
+    <t>20160205077</t>
+  </si>
+  <si>
+    <t>20160205076</t>
+  </si>
+  <si>
+    <t>20160205012</t>
+  </si>
+  <si>
+    <t>20160205013</t>
+  </si>
+  <si>
+    <t>20160205014</t>
+  </si>
+  <si>
+    <t>20160205015</t>
+  </si>
+  <si>
+    <t>20160205020</t>
+  </si>
+  <si>
+    <t>20160205019</t>
+  </si>
+  <si>
+    <t>20160205018</t>
+  </si>
+  <si>
+    <t>20160205017</t>
+  </si>
+  <si>
+    <t>20160205016</t>
+  </si>
+  <si>
+    <t>20160205032</t>
+  </si>
+  <si>
+    <t>Test20160205001</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>Test20160129012</t>
-  </si>
-  <si>
-    <t>Test20160129001</t>
-  </si>
-  <si>
-    <t>Test20160129002</t>
-  </si>
-  <si>
-    <t>Test20160129031</t>
-  </si>
-  <si>
-    <t>Test20160129032</t>
-  </si>
-  <si>
-    <t>Test20160129051</t>
-  </si>
-  <si>
-    <t>Test20160129041</t>
-  </si>
-  <si>
-    <t>Test20160129042</t>
-  </si>
-  <si>
-    <t>Test20160129071</t>
-  </si>
-  <si>
-    <t>Test20160129061</t>
-  </si>
-  <si>
-    <t>Test20160129062</t>
-  </si>
-  <si>
-    <t>Test20160129059</t>
-  </si>
-  <si>
-    <t>Test20160129060</t>
-  </si>
-  <si>
-    <t>Test20160129013</t>
-  </si>
-  <si>
-    <t>Test20160129053</t>
-  </si>
-  <si>
-    <t>Test20160129054</t>
+    <t>Test20160205002</t>
+  </si>
+  <si>
+    <t>Test20160205021</t>
+  </si>
+  <si>
+    <t>Test20160205022</t>
+  </si>
+  <si>
+    <t>Test20160205051</t>
+  </si>
+  <si>
+    <t>Test20160205041</t>
+  </si>
+  <si>
+    <t>Test20160205042</t>
+  </si>
+  <si>
+    <t>Test20160205071</t>
+  </si>
+  <si>
+    <t>Test20160205061</t>
+  </si>
+  <si>
+    <t>Test20160205062</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>20160205031</t>
+  </si>
+  <si>
+    <t>Test20160205013</t>
+  </si>
+  <si>
+    <t>Test20160205014</t>
+  </si>
+  <si>
+    <t>Test20160205003</t>
+  </si>
+  <si>
+    <t>Test20160205004</t>
+  </si>
+  <si>
+    <t>Test20160205031</t>
+  </si>
+  <si>
+    <t>Test20160205032</t>
+  </si>
+  <si>
+    <t>Test20160205023</t>
+  </si>
+  <si>
+    <t>Test20160205024</t>
+  </si>
+  <si>
+    <t>Test20160205053</t>
+  </si>
+  <si>
+    <t>Test20160205054</t>
+  </si>
+  <si>
+    <t>Test20160205043</t>
+  </si>
+  <si>
+    <t>Test20160205044</t>
+  </si>
+  <si>
+    <t>Test20160205073</t>
+  </si>
+  <si>
+    <t>Test20160205074</t>
+  </si>
+  <si>
+    <t>Test20160205063</t>
+  </si>
+  <si>
+    <t>Test20160205064</t>
+  </si>
+  <si>
+    <t>Test20160205055</t>
+  </si>
+  <si>
+    <t>Test20160205056</t>
   </si>
 </sst>
 </file>
@@ -682,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,33 +761,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -760,15 +802,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -783,15 +825,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -806,12 +848,12 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -834,7 +876,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -857,7 +899,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -880,7 +922,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -903,7 +945,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -926,7 +968,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -958,12 +1000,13 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -991,10 +1034,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1009,15 +1052,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1032,15 +1075,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1055,15 +1098,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1078,12 +1121,12 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1106,7 +1149,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1129,7 +1172,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1152,7 +1195,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1175,7 +1218,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1198,7 +1241,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1221,6 +1264,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1228,13 +1272,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1262,10 +1307,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1280,15 +1325,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1303,15 +1348,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1326,15 +1371,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1349,12 +1394,12 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1377,7 +1422,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1400,7 +1445,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1423,7 +1468,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1446,7 +1491,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1469,7 +1514,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1499,13 +1544,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1533,10 +1579,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1551,15 +1597,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1574,15 +1620,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1602,10 +1648,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1625,10 +1671,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1648,10 +1694,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1671,10 +1717,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -1694,10 +1740,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1717,10 +1763,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1735,15 +1781,15 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -1758,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1771,12 +1817,13 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1804,10 +1851,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1822,15 +1869,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1845,15 +1892,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1868,15 +1915,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1891,12 +1938,12 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1919,7 +1966,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1942,7 +1989,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1965,7 +2012,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1988,7 +2035,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2011,7 +2058,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2041,13 +2088,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2075,10 +2123,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2093,15 +2141,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2121,10 +2169,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2139,15 +2187,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2162,15 +2210,15 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -2185,15 +2233,15 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -2208,12 +2256,12 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2236,7 +2284,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2259,7 +2307,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2282,7 +2330,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2313,12 +2361,13 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2346,10 +2395,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2364,15 +2413,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2387,15 +2436,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2410,15 +2459,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2433,12 +2482,12 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2461,7 +2510,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2484,7 +2533,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2507,7 +2556,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2530,7 +2579,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2553,7 +2602,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2583,13 +2632,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2617,10 +2667,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2635,15 +2685,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2663,10 +2713,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2681,15 +2731,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2704,12 +2754,12 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2732,7 +2782,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2755,7 +2805,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2778,7 +2828,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2801,7 +2851,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2824,7 +2874,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
